--- a/planning/css plans.xlsx
+++ b/planning/css plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
   <si>
     <t>Item</t>
   </si>
@@ -321,13 +321,73 @@
   </si>
   <si>
     <t xml:space="preserve"> --console_text_color</t>
+  </si>
+  <si>
+    <t>#0070d2</t>
+  </si>
+  <si>
+    <t>rgb(242, 243, 243)</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>rgb(244, 246, 249)</t>
+  </si>
+  <si>
+    <t>#006cb5</t>
+  </si>
+  <si>
+    <t>same + underline</t>
+  </si>
+  <si>
+    <t>#16325c</t>
+  </si>
+  <si>
+    <t>#ff6a00</t>
+  </si>
+  <si>
+    <t>#54698d</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>rgb(169, 169, 169)</t>
+  </si>
+  <si>
+    <t>#f4f5f7</t>
+  </si>
+  <si>
+    <t>rgb(224, 229, 238) 1px solid</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --</t>
+  </si>
+  <si>
+    <t>#e7edf4</t>
+  </si>
+  <si>
+    <t>#c00</t>
+  </si>
+  <si>
+    <t>0px 0px 0px 1px solid #ececec</t>
+  </si>
+  <si>
+    <t>#f4f6f9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +419,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +475,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB5B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -540,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -554,18 +626,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,6 +650,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDB5B5"/>
       <color rgb="FFE6CDFF"/>
       <color rgb="FFC58BFF"/>
     </mruColors>
@@ -718,7 +795,43 @@
             </a:rPr>
             <a:t>x-tab-dirty</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tabstrip tab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = border, alt bg/border ONLY</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1027,7 +1140,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,17 +1148,18 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -1081,7 +1195,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1090,7 +1204,9 @@
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
@@ -1100,7 +1216,9 @@
         <v>30</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -1112,7 +1230,9 @@
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -1126,7 +1246,9 @@
       <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
@@ -1233,18 +1355,20 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -1257,7 +1381,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1266,7 +1390,9 @@
       <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
@@ -1278,7 +1404,9 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
@@ -1290,7 +1418,9 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -1304,7 +1434,9 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
@@ -1316,7 +1448,9 @@
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -1328,7 +1462,9 @@
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
@@ -1342,19 +1478,23 @@
       <c r="C25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
@@ -1369,14 +1509,16 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
@@ -1388,7 +1530,9 @@
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
@@ -1402,7 +1546,9 @@
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
@@ -1416,17 +1562,21 @@
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
@@ -1441,7 +1591,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1450,7 +1600,9 @@
       <c r="C34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
@@ -1462,7 +1614,9 @@
       <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -1474,7 +1628,9 @@
       <c r="C36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -1488,19 +1644,23 @@
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
@@ -1515,7 +1675,7 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1524,7 +1684,9 @@
       <c r="C40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
@@ -1536,7 +1698,9 @@
       <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
@@ -1548,7 +1712,9 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
@@ -1562,7 +1728,9 @@
       <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
@@ -1576,7 +1744,9 @@
       <c r="C44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
@@ -1588,7 +1758,9 @@
       <c r="C45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
@@ -1602,7 +1774,9 @@
       <c r="C46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
@@ -1614,7 +1788,9 @@
       <c r="C47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
@@ -1628,7 +1804,9 @@
       <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
@@ -1642,22 +1820,24 @@
       <c r="C49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -1666,7 +1846,9 @@
       <c r="C51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
@@ -1678,7 +1860,9 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
@@ -1690,7 +1874,9 @@
       <c r="C53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
@@ -1698,37 +1884,43 @@
       <c r="A54" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
@@ -1743,14 +1935,16 @@
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
@@ -1762,7 +1956,9 @@
       <c r="C59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
@@ -1774,41 +1970,45 @@
       <c r="C60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="D63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -1820,7 +2020,9 @@
       <c r="C64" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
@@ -1834,7 +2036,9 @@
       <c r="C65" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
@@ -1848,7 +2052,9 @@
       <c r="C66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
@@ -1859,10 +2065,12 @@
       <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
@@ -1870,13 +2078,15 @@
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
